--- a/bin/Debug/netcoreapp3.1/RE962-DRW.xlsx
+++ b/bin/Debug/netcoreapp3.1/RE962-DRW.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t/>
   </si>
@@ -20,9 +20,6 @@
     <t>Device Information</t>
   </si>
   <si>
-    <t>Reading device info...</t>
-  </si>
-  <si>
     <t>Model Name</t>
   </si>
   <si>
@@ -38,13 +35,13 @@
     <t>Serial Number</t>
   </si>
   <si>
-    <t>2026484509</t>
+    <t>1886304826</t>
   </si>
   <si>
     <t>Hybrid S/N</t>
   </si>
   <si>
-    <t>7708-4EB7-6148</t>
+    <t>2174-49AE-6143</t>
   </si>
   <si>
     <t>Hybrid Version</t>
@@ -95,7 +92,7 @@
     <t>Final Test Date</t>
   </si>
   <si>
-    <t>2023-05-26 17:58:18</t>
+    <t>2023-11-10 16:39:21</t>
   </si>
   <si>
     <t>Test Program</t>
@@ -125,7 +122,7 @@
     <t>Fitting Side</t>
   </si>
   <si>
-    <t>Right</t>
+    <t>Left</t>
   </si>
   <si>
     <t>Binaural</t>
@@ -204,116 +201,116 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>0</v>
@@ -321,7 +318,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>0</v>
@@ -329,7 +326,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>0</v>
@@ -337,74 +334,74 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Debug/netcoreapp3.1/RE962-DRW.xlsx
+++ b/bin/Debug/netcoreapp3.1/RE962-DRW.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t/>
   </si>
@@ -20,6 +20,9 @@
     <t>Device Information</t>
   </si>
   <si>
+    <t>Reading device info...</t>
+  </si>
+  <si>
     <t>Model Name</t>
   </si>
   <si>
@@ -92,7 +95,7 @@
     <t>Final Test Date</t>
   </si>
   <si>
-    <t>2023-11-10 16:39:21</t>
+    <t>2023-11-21 20:15:14</t>
   </si>
   <si>
     <t>Test Program</t>
@@ -201,116 +204,116 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>0</v>
@@ -318,7 +321,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>0</v>
@@ -326,7 +329,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>0</v>
@@ -334,74 +337,74 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
